--- a/latest/alldocs/Home/Money_save.xlsx
+++ b/latest/alldocs/Home/Money_save.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tranings\Git\mine\latest\alldocs\Home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\alldocs\Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A95BE-301E-4155-B2CC-6AD5E562F430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F43D8-AF1B-4457-9D02-746C8A3A2054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +78,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,12 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,25 +595,186 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="C24">
+        <v>223</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="C25" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2">
-        <f>SUM(C2:C30)</f>
-        <v>2843</v>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <f>SUM(C2:C53)</f>
+        <v>4392</v>
       </c>
     </row>
   </sheetData>

--- a/latest/alldocs/Home/Money_save.xlsx
+++ b/latest/alldocs/Home/Money_save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\alldocs\Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F43D8-AF1B-4457-9D02-746C8A3A2054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811817B-A5B9-43BF-B75A-86723F6C20EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Day</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>5k</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,7 +606,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>17</v>
       </c>
     </row>
@@ -663,7 +666,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -671,7 +674,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -679,7 +682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -687,94 +690,171 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="3">
+        <v>172</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2">
-        <f>SUM(C2:C53)</f>
-        <v>4392</v>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2">
+        <f>SUM(C2:C68)</f>
+        <v>5215</v>
       </c>
     </row>
   </sheetData>

--- a/latest/alldocs/Home/Money_save.xlsx
+++ b/latest/alldocs/Home/Money_save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\alldocs\Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811817B-A5B9-43BF-B75A-86723F6C20EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FC79C3-740E-4342-9C52-0C24FF007EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,100 +761,281 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="C44">
+        <v>107</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="C46">
+        <v>115</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="C47">
+        <v>151</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+      <c r="C61">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2">
-        <f>SUM(C2:C68)</f>
-        <v>5215</v>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2">
+        <f>SUM(C2:C82)</f>
+        <v>8847</v>
       </c>
     </row>
   </sheetData>
